--- a/docs/testes.xlsx
+++ b/docs/testes.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-18000" windowWidth="32000" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="media" sheetId="1" r:id="rId1"/>
-    <sheet name="100" sheetId="4" r:id="rId2"/>
-    <sheet name="90" sheetId="13" r:id="rId3"/>
-    <sheet name="80" sheetId="14" r:id="rId4"/>
-    <sheet name="70" sheetId="15" r:id="rId5"/>
-    <sheet name="60" sheetId="16" r:id="rId6"/>
-    <sheet name="50" sheetId="17" r:id="rId7"/>
-    <sheet name="40" sheetId="18" r:id="rId8"/>
-    <sheet name="30" sheetId="19" r:id="rId9"/>
-    <sheet name="20" sheetId="20" r:id="rId10"/>
-    <sheet name="10" sheetId="21" r:id="rId11"/>
-    <sheet name="0" sheetId="22" r:id="rId12"/>
+    <sheet name="graficos" sheetId="23" r:id="rId2"/>
+    <sheet name="100" sheetId="4" r:id="rId3"/>
+    <sheet name="90" sheetId="13" r:id="rId4"/>
+    <sheet name="80" sheetId="14" r:id="rId5"/>
+    <sheet name="70" sheetId="15" r:id="rId6"/>
+    <sheet name="60" sheetId="16" r:id="rId7"/>
+    <sheet name="50" sheetId="17" r:id="rId8"/>
+    <sheet name="40" sheetId="18" r:id="rId9"/>
+    <sheet name="30" sheetId="19" r:id="rId10"/>
+    <sheet name="20" sheetId="20" r:id="rId11"/>
+    <sheet name="10" sheetId="21" r:id="rId12"/>
+    <sheet name="0" sheetId="22" r:id="rId13"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -231,6 +232,3671 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>media!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>relacoes validas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>media!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>media!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2106.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2002.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1874.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1773.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1675.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1583.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1468.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1370.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1370.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1170.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1084.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2125127280"/>
+        <c:axId val="-2124881232"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2125127280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2124881232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124881232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125127280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>media!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>contribuicoes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>media!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>media!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10381.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10120.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10661.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11262.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12333.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13606.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15553.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18395.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18395.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28650.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38581.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2134455392"/>
+        <c:axId val="-2134381808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2134455392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134381808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2134381808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134455392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>media!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>erros</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>media!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>media!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>338.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2083651456"/>
+        <c:axId val="-2088652736"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2083651456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2088652736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2088652736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2083651456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>media!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>inferencias</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>media!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>media!$H$2:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>906.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>794.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>695.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>511.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>398.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2134562176"/>
+        <c:axId val="-2086913296"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2134562176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2086913296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2086913296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2134562176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -875,7 +4541,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C2" s="5">
         <v>1084</v>
@@ -884,16 +4550,16 @@
         <v>3106</v>
       </c>
       <c r="E2" s="3">
-        <v>1285</v>
+        <v>1382</v>
       </c>
       <c r="F2" s="3">
-        <v>22203</v>
+        <v>18040</v>
       </c>
       <c r="G2" s="3">
-        <v>188</v>
+        <v>117</v>
       </c>
       <c r="H2" s="3">
-        <v>229</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -904,16 +4570,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
-        <v>1269</v>
+        <v>1375</v>
       </c>
       <c r="F3" s="3">
-        <v>22293</v>
+        <v>18292</v>
       </c>
       <c r="G3" s="3">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="H3" s="3">
-        <v>221</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -924,16 +4590,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3">
-        <v>1243</v>
+        <v>1372</v>
       </c>
       <c r="F4" s="3">
-        <v>22440</v>
+        <v>18317</v>
       </c>
       <c r="G4" s="3">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="H4" s="3">
-        <v>185</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -944,16 +4610,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3">
-        <v>1275</v>
+        <v>1369</v>
       </c>
       <c r="F5" s="3">
-        <v>21953</v>
+        <v>18473</v>
       </c>
       <c r="G5" s="3">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="H5" s="3">
-        <v>218</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -964,16 +4630,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>1281</v>
+        <v>1338</v>
       </c>
       <c r="F6" s="3">
-        <v>22217</v>
+        <v>18670</v>
       </c>
       <c r="G6" s="3">
-        <v>186</v>
+        <v>122</v>
       </c>
       <c r="H6" s="3">
-        <v>220</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -984,16 +4650,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>1237</v>
+        <v>1377</v>
       </c>
       <c r="F7" s="3">
-        <v>22725</v>
+        <v>18284</v>
       </c>
       <c r="G7" s="3">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="H7" s="3">
-        <v>185</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1004,16 +4670,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
-        <v>1282</v>
+        <v>1370</v>
       </c>
       <c r="F8" s="3">
-        <v>21950</v>
+        <v>18259</v>
       </c>
       <c r="G8" s="3">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="H8" s="3">
-        <v>225</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1024,16 +4690,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
-        <v>1258</v>
+        <v>1352</v>
       </c>
       <c r="F9" s="3">
-        <v>22574</v>
+        <v>19153</v>
       </c>
       <c r="G9" s="3">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="H9" s="3">
-        <v>203</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1044,16 +4710,16 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
-        <v>1272</v>
+        <v>1370</v>
       </c>
       <c r="F10" s="3">
-        <v>22222</v>
+        <v>18592</v>
       </c>
       <c r="G10" s="3">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="H10" s="3">
-        <v>219</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1064,34 +4730,34 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
-        <v>1253</v>
+        <v>1350</v>
       </c>
       <c r="F11" s="3">
-        <v>22664</v>
+        <v>18564</v>
       </c>
       <c r="G11" s="3">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="H11" s="3">
-        <v>199</v>
+        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>1270</v>
+        <v>1370</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>22257</v>
+        <v>18395</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C2" s="5">
         <v>1084</v>
@@ -1165,16 +4831,16 @@
         <v>3106</v>
       </c>
       <c r="E2" s="3">
-        <v>1187</v>
+        <v>1285</v>
       </c>
       <c r="F2" s="3">
-        <v>27882</v>
+        <v>22203</v>
       </c>
       <c r="G2" s="3">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="H2" s="3">
-        <v>147</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1185,16 +4851,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
-        <v>1160</v>
+        <v>1269</v>
       </c>
       <c r="F3" s="3">
-        <v>28875</v>
+        <v>22293</v>
       </c>
       <c r="G3" s="3">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="H3" s="3">
-        <v>121</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1205,16 +4871,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3">
-        <v>1185</v>
+        <v>1243</v>
       </c>
       <c r="F4" s="3">
-        <v>28609</v>
+        <v>22440</v>
       </c>
       <c r="G4" s="3">
-        <v>250</v>
+        <v>166</v>
       </c>
       <c r="H4" s="3">
-        <v>148</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1225,16 +4891,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3">
-        <v>1167</v>
+        <v>1275</v>
       </c>
       <c r="F5" s="3">
-        <v>28691</v>
+        <v>21953</v>
       </c>
       <c r="G5" s="3">
+        <v>172</v>
+      </c>
+      <c r="H5" s="3">
         <v>218</v>
-      </c>
-      <c r="H5" s="3">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1245,16 +4911,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>1173</v>
+        <v>1281</v>
       </c>
       <c r="F6" s="3">
-        <v>28919</v>
+        <v>22217</v>
       </c>
       <c r="G6" s="3">
-        <v>264</v>
+        <v>186</v>
       </c>
       <c r="H6" s="3">
-        <v>151</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1265,16 +4931,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>1160</v>
+        <v>1237</v>
       </c>
       <c r="F7" s="3">
-        <v>27601</v>
+        <v>22725</v>
       </c>
       <c r="G7" s="3">
-        <v>240</v>
+        <v>167</v>
       </c>
       <c r="H7" s="3">
-        <v>126</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1285,16 +4951,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
-        <v>1174</v>
+        <v>1282</v>
       </c>
       <c r="F8" s="3">
-        <v>28157</v>
+        <v>21950</v>
       </c>
       <c r="G8" s="3">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c r="H8" s="3">
-        <v>144</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1305,16 +4971,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
-        <v>1164</v>
+        <v>1258</v>
       </c>
       <c r="F9" s="3">
-        <v>28254</v>
+        <v>22574</v>
       </c>
       <c r="G9" s="3">
-        <v>263</v>
+        <v>170</v>
       </c>
       <c r="H9" s="3">
-        <v>139</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1325,16 +4991,16 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
-        <v>1181</v>
+        <v>1272</v>
       </c>
       <c r="F10" s="3">
-        <v>28892</v>
+        <v>22222</v>
       </c>
       <c r="G10" s="3">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="H10" s="3">
-        <v>141</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1345,34 +5011,34 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
-        <v>1149</v>
+        <v>1253</v>
       </c>
       <c r="F11" s="3">
-        <v>28928</v>
+        <v>22664</v>
       </c>
       <c r="G11" s="3">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c r="H11" s="3">
-        <v>121</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>1170</v>
+        <v>1270</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>28650</v>
+        <v>22257</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>171</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1437,6 +5103,287 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1084</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3106</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1187</v>
+      </c>
+      <c r="F2" s="3">
+        <v>27882</v>
+      </c>
+      <c r="G2" s="3">
+        <v>245</v>
+      </c>
+      <c r="H2" s="3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3">
+        <v>1160</v>
+      </c>
+      <c r="F3" s="3">
+        <v>28875</v>
+      </c>
+      <c r="G3" s="3">
+        <v>237</v>
+      </c>
+      <c r="H3" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3">
+        <v>1185</v>
+      </c>
+      <c r="F4" s="3">
+        <v>28609</v>
+      </c>
+      <c r="G4" s="3">
+        <v>250</v>
+      </c>
+      <c r="H4" s="3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3">
+        <v>1167</v>
+      </c>
+      <c r="F5" s="3">
+        <v>28691</v>
+      </c>
+      <c r="G5" s="3">
+        <v>218</v>
+      </c>
+      <c r="H5" s="3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3">
+        <v>1173</v>
+      </c>
+      <c r="F6" s="3">
+        <v>28919</v>
+      </c>
+      <c r="G6" s="3">
+        <v>264</v>
+      </c>
+      <c r="H6" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3">
+        <v>1160</v>
+      </c>
+      <c r="F7" s="3">
+        <v>27601</v>
+      </c>
+      <c r="G7" s="3">
+        <v>240</v>
+      </c>
+      <c r="H7" s="3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="3">
+        <v>1174</v>
+      </c>
+      <c r="F8" s="3">
+        <v>28157</v>
+      </c>
+      <c r="G8" s="3">
+        <v>251</v>
+      </c>
+      <c r="H8" s="3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3">
+        <v>1164</v>
+      </c>
+      <c r="F9" s="3">
+        <v>28254</v>
+      </c>
+      <c r="G9" s="3">
+        <v>263</v>
+      </c>
+      <c r="H9" s="3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3">
+        <v>1181</v>
+      </c>
+      <c r="F10" s="3">
+        <v>28892</v>
+      </c>
+      <c r="G10" s="3">
+        <v>246</v>
+      </c>
+      <c r="H10" s="3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3">
+        <v>1149</v>
+      </c>
+      <c r="F11" s="3">
+        <v>28928</v>
+      </c>
+      <c r="G11" s="3">
+        <v>243</v>
+      </c>
+      <c r="H11" s="3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E12" s="2">
+        <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
+        <v>1170</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
+        <v>28650</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>0</v>
       </c>
       <c r="C2" s="5">
@@ -1667,6 +5614,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1933,287 +5895,6 @@
       <c r="H12" s="2">
         <f t="shared" si="0"/>
         <v>1024</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1084</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3106</v>
-      </c>
-      <c r="E2" s="3">
-        <v>2085</v>
-      </c>
-      <c r="F2" s="3">
-        <v>9634</v>
-      </c>
-      <c r="G2" s="3">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3">
-        <v>2036</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10012</v>
-      </c>
-      <c r="G3" s="3">
-        <v>11</v>
-      </c>
-      <c r="H3" s="3">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3">
-        <v>1888</v>
-      </c>
-      <c r="F4" s="3">
-        <v>10685</v>
-      </c>
-      <c r="G4" s="3">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3">
-        <v>2014</v>
-      </c>
-      <c r="F5" s="3">
-        <v>10163</v>
-      </c>
-      <c r="G5" s="3">
-        <v>23</v>
-      </c>
-      <c r="H5" s="3">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3">
-        <v>2093</v>
-      </c>
-      <c r="F6" s="3">
-        <v>9712</v>
-      </c>
-      <c r="G6" s="3">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3">
-        <v>10530</v>
-      </c>
-      <c r="F7" s="3">
-        <v>10530</v>
-      </c>
-      <c r="G7" s="3">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="3">
-        <v>1933</v>
-      </c>
-      <c r="F8" s="3">
-        <v>10778</v>
-      </c>
-      <c r="G8" s="3">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3">
-        <v>1986</v>
-      </c>
-      <c r="F9" s="3">
-        <v>10065</v>
-      </c>
-      <c r="G9" s="3">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3">
-        <v>1990</v>
-      </c>
-      <c r="F10" s="3">
-        <v>10077</v>
-      </c>
-      <c r="G10" s="3">
-        <v>21</v>
-      </c>
-      <c r="H10" s="3">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3">
-        <v>1907</v>
-      </c>
-      <c r="F11" s="3">
-        <v>10808</v>
-      </c>
-      <c r="G11" s="3">
-        <v>19</v>
-      </c>
-      <c r="H11" s="3">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="E12" s="2">
-        <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>2002</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>10120</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -2278,7 +5959,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C2" s="5">
         <v>1084</v>
@@ -2287,16 +5968,16 @@
         <v>3106</v>
       </c>
       <c r="E2" s="3">
-        <v>1875</v>
+        <v>2085</v>
       </c>
       <c r="F2" s="3">
-        <v>10794</v>
+        <v>9634</v>
       </c>
       <c r="G2" s="3">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H2" s="3">
-        <v>795</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2307,16 +5988,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
-        <v>1964</v>
+        <v>2036</v>
       </c>
       <c r="F3" s="3">
-        <v>10231</v>
+        <v>10012</v>
       </c>
       <c r="G3" s="3">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H3" s="3">
-        <v>882</v>
+        <v>954</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2327,16 +6008,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3">
-        <v>1852</v>
+        <v>1888</v>
       </c>
       <c r="F4" s="3">
-        <v>10828</v>
+        <v>10685</v>
       </c>
       <c r="G4" s="3">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H4" s="3">
-        <v>771</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2347,16 +6028,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3">
-        <v>1866</v>
+        <v>2014</v>
       </c>
       <c r="F5" s="3">
-        <v>10683</v>
+        <v>10163</v>
       </c>
       <c r="G5" s="3">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H5" s="3">
-        <v>788</v>
+        <v>931</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2367,16 +6048,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>1800</v>
+        <v>2093</v>
       </c>
       <c r="F6" s="3">
-        <v>11130</v>
+        <v>9712</v>
       </c>
       <c r="G6" s="3">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H6" s="3">
-        <v>720</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2387,16 +6068,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>1873</v>
+        <v>10530</v>
       </c>
       <c r="F7" s="3">
-        <v>10631</v>
+        <v>10530</v>
       </c>
       <c r="G7" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H7" s="3">
-        <v>793</v>
+        <v>862</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2407,16 +6088,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
-        <v>1867</v>
+        <v>1933</v>
       </c>
       <c r="F8" s="3">
-        <v>10759</v>
+        <v>10778</v>
       </c>
       <c r="G8" s="3">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3">
-        <v>786</v>
+        <v>853</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2427,16 +6108,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
-        <v>1905</v>
+        <v>1986</v>
       </c>
       <c r="F9" s="3">
-        <v>10265</v>
+        <v>10065</v>
       </c>
       <c r="G9" s="3">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H9" s="3">
-        <v>822</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2447,16 +6128,16 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
-        <v>1921</v>
+        <v>1990</v>
       </c>
       <c r="F10" s="3">
-        <v>10340</v>
+        <v>10077</v>
       </c>
       <c r="G10" s="3">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H10" s="3">
-        <v>839</v>
+        <v>911</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2467,34 +6148,34 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
-        <v>1875</v>
+        <v>1907</v>
       </c>
       <c r="F11" s="3">
-        <v>10640</v>
+        <v>10808</v>
       </c>
       <c r="G11" s="3">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H11" s="3">
-        <v>795</v>
+        <v>825</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>1874</v>
+        <v>2002</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>10661</v>
+        <v>10120</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>794</v>
+        <v>906</v>
       </c>
     </row>
   </sheetData>
@@ -2521,7 +6202,7 @@
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -2559,7 +6240,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C2" s="5">
         <v>1084</v>
@@ -2568,16 +6249,16 @@
         <v>3106</v>
       </c>
       <c r="E2" s="3">
-        <v>1732</v>
+        <v>1875</v>
       </c>
       <c r="F2" s="3">
-        <v>11595</v>
+        <v>10794</v>
       </c>
       <c r="G2" s="3">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3">
-        <v>652</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2588,16 +6269,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
-        <v>1834</v>
+        <v>1964</v>
       </c>
       <c r="F3" s="3">
-        <v>11078</v>
+        <v>10231</v>
       </c>
       <c r="G3" s="3">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3">
-        <v>753</v>
+        <v>882</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2608,16 +6289,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3">
-        <v>1837</v>
+        <v>1852</v>
       </c>
       <c r="F4" s="3">
-        <v>10944</v>
+        <v>10828</v>
       </c>
       <c r="G4" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4" s="3">
-        <v>760</v>
+        <v>771</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2628,16 +6309,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3">
-        <v>1843</v>
+        <v>1866</v>
       </c>
       <c r="F5" s="3">
-        <v>10972</v>
+        <v>10683</v>
       </c>
       <c r="G5" s="3">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H5" s="3">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2648,16 +6329,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>1782</v>
+        <v>1800</v>
       </c>
       <c r="F6" s="3">
-        <v>11249</v>
+        <v>11130</v>
       </c>
       <c r="G6" s="3">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="H6" s="3">
-        <v>703</v>
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2668,16 +6349,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>1828</v>
+        <v>1873</v>
       </c>
       <c r="F7" s="3">
-        <v>10895</v>
+        <v>10631</v>
       </c>
       <c r="G7" s="3">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H7" s="3">
-        <v>748</v>
+        <v>793</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2688,16 +6369,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
-        <v>1764</v>
+        <v>1867</v>
       </c>
       <c r="F8" s="3">
-        <v>11349</v>
+        <v>10759</v>
       </c>
       <c r="G8" s="3">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H8" s="3">
-        <v>687</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2708,16 +6389,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
-        <v>1757</v>
+        <v>1905</v>
       </c>
       <c r="F9" s="3">
-        <v>11296</v>
+        <v>10265</v>
       </c>
       <c r="G9" s="3">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3">
-        <v>677</v>
+        <v>822</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2728,16 +6409,16 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
-        <v>1713</v>
+        <v>1921</v>
       </c>
       <c r="F10" s="3">
-        <v>11549</v>
+        <v>10340</v>
       </c>
       <c r="G10" s="3">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3">
-        <v>634</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2748,34 +6429,34 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
-        <v>1755</v>
+        <v>1875</v>
       </c>
       <c r="F11" s="3">
-        <v>11276</v>
+        <v>10640</v>
       </c>
       <c r="G11" s="3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3">
-        <v>674</v>
+        <v>795</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>1773</v>
+        <v>1874</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>11262</v>
+        <v>10661</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>695</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +6521,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C2" s="5">
         <v>1084</v>
@@ -2849,16 +6530,16 @@
         <v>3106</v>
       </c>
       <c r="E2" s="3">
-        <v>1675</v>
+        <v>1732</v>
       </c>
       <c r="F2" s="3">
-        <v>12266</v>
+        <v>11595</v>
       </c>
       <c r="G2" s="3">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="H2" s="3">
-        <v>599</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2869,16 +6550,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
-        <v>1681</v>
+        <v>1834</v>
       </c>
       <c r="F3" s="3">
-        <v>12417</v>
+        <v>11078</v>
       </c>
       <c r="G3" s="3">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H3" s="3">
-        <v>607</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2889,16 +6570,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3">
-        <v>1680</v>
+        <v>1837</v>
       </c>
       <c r="F4" s="3">
-        <v>12106</v>
+        <v>10944</v>
       </c>
       <c r="G4" s="3">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H4" s="3">
-        <v>602</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2909,16 +6590,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3">
-        <v>1683</v>
+        <v>1843</v>
       </c>
       <c r="F5" s="3">
-        <v>12163</v>
+        <v>10972</v>
       </c>
       <c r="G5" s="3">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H5" s="3">
-        <v>608</v>
+        <v>770</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2929,16 +6610,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>1643</v>
+        <v>1782</v>
       </c>
       <c r="F6" s="3">
-        <v>12401</v>
+        <v>11249</v>
       </c>
       <c r="G6" s="3">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="H6" s="3">
-        <v>568</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2949,16 +6630,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>1669</v>
+        <v>1828</v>
       </c>
       <c r="F7" s="3">
-        <v>12420</v>
+        <v>10895</v>
       </c>
       <c r="G7" s="3">
         <v>36</v>
       </c>
       <c r="H7" s="3">
-        <v>591</v>
+        <v>748</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2969,16 +6650,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
-        <v>1676</v>
+        <v>1764</v>
       </c>
       <c r="F8" s="3">
-        <v>12483</v>
+        <v>11349</v>
       </c>
       <c r="G8" s="3">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H8" s="3">
-        <v>603</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2989,16 +6670,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
-        <v>1670</v>
+        <v>1757</v>
       </c>
       <c r="F9" s="3">
-        <v>12015</v>
+        <v>11296</v>
       </c>
       <c r="G9" s="3">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3">
-        <v>595</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3009,16 +6690,16 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
-        <v>1660</v>
+        <v>1713</v>
       </c>
       <c r="F10" s="3">
-        <v>12578</v>
+        <v>11549</v>
       </c>
       <c r="G10" s="3">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H10" s="3">
-        <v>577</v>
+        <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3029,34 +6710,34 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
-        <v>1693</v>
+        <v>1755</v>
       </c>
       <c r="F11" s="3">
-        <v>12211</v>
+        <v>11276</v>
       </c>
       <c r="G11" s="3">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H11" s="3">
-        <v>614</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>1675</v>
+        <v>1773</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>12333</v>
+        <v>11262</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>600</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -3121,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="5">
         <v>1084</v>
@@ -3130,16 +6811,16 @@
         <v>3106</v>
       </c>
       <c r="E2" s="3">
-        <v>1575</v>
+        <v>1675</v>
       </c>
       <c r="F2" s="3">
-        <v>13615</v>
+        <v>12266</v>
       </c>
       <c r="G2" s="3">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3">
-        <v>505</v>
+        <v>599</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3150,16 +6831,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
-        <v>1586</v>
+        <v>1681</v>
       </c>
       <c r="F3" s="3">
-        <v>13582</v>
+        <v>12417</v>
       </c>
       <c r="G3" s="3">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H3" s="3">
-        <v>515</v>
+        <v>607</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3170,16 +6851,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3">
-        <v>1562</v>
+        <v>1680</v>
       </c>
       <c r="F4" s="3">
-        <v>13700</v>
+        <v>12106</v>
       </c>
       <c r="G4" s="3">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H4" s="3">
-        <v>490</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3190,16 +6871,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3">
-        <v>1583</v>
+        <v>1683</v>
       </c>
       <c r="F5" s="3">
-        <v>13372</v>
+        <v>12163</v>
       </c>
       <c r="G5" s="3">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="H5" s="3">
-        <v>509</v>
+        <v>608</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3210,16 +6891,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>1555</v>
+        <v>1643</v>
       </c>
       <c r="F6" s="3">
-        <v>13615</v>
+        <v>12401</v>
       </c>
       <c r="G6" s="3">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="H6" s="3">
-        <v>484</v>
+        <v>568</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3230,16 +6911,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>1584</v>
+        <v>1669</v>
       </c>
       <c r="F7" s="3">
-        <v>13564</v>
+        <v>12420</v>
       </c>
       <c r="G7" s="3">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3">
-        <v>514</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3250,16 +6931,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
-        <v>1630</v>
+        <v>1676</v>
       </c>
       <c r="F8" s="3">
-        <v>13536</v>
+        <v>12483</v>
       </c>
       <c r="G8" s="3">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H8" s="3">
-        <v>558</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3270,16 +6951,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
-        <v>1592</v>
+        <v>1670</v>
       </c>
       <c r="F9" s="3">
-        <v>13625</v>
+        <v>12015</v>
       </c>
       <c r="G9" s="3">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H9" s="3">
-        <v>514</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3290,16 +6971,16 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
-        <v>1576</v>
+        <v>1660</v>
       </c>
       <c r="F10" s="3">
-        <v>13746</v>
+        <v>12578</v>
       </c>
       <c r="G10" s="3">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="H10" s="3">
-        <v>502</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3310,34 +6991,34 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
-        <v>1587</v>
+        <v>1693</v>
       </c>
       <c r="F11" s="3">
-        <v>13598</v>
+        <v>12211</v>
       </c>
       <c r="G11" s="3">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H11" s="3">
-        <v>517</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>1583</v>
+        <v>1675</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>13606</v>
+        <v>12333</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>511</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -3402,7 +7083,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="5">
         <v>1084</v>
@@ -3411,16 +7092,16 @@
         <v>3106</v>
       </c>
       <c r="E2" s="3">
-        <v>1466</v>
+        <v>1575</v>
       </c>
       <c r="F2" s="3">
-        <v>15550</v>
+        <v>13615</v>
       </c>
       <c r="G2" s="3">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3">
-        <v>399</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3431,16 +7112,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
-        <v>1483</v>
+        <v>1586</v>
       </c>
       <c r="F3" s="3">
-        <v>15561</v>
+        <v>13582</v>
       </c>
       <c r="G3" s="3">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="H3" s="3">
-        <v>411</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3451,16 +7132,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3">
-        <v>1454</v>
+        <v>1562</v>
       </c>
       <c r="F4" s="3">
-        <v>15449</v>
+        <v>13700</v>
       </c>
       <c r="G4" s="3">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="H4" s="3">
-        <v>382</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3471,16 +7152,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3">
-        <v>1460</v>
+        <v>1583</v>
       </c>
       <c r="F5" s="3">
-        <v>15607</v>
+        <v>13372</v>
       </c>
       <c r="G5" s="3">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H5" s="3">
-        <v>389</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3491,16 +7172,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>1465</v>
+        <v>1555</v>
       </c>
       <c r="F6" s="3">
-        <v>15604</v>
+        <v>13615</v>
       </c>
       <c r="G6" s="3">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="H6" s="3">
-        <v>393</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3511,16 +7192,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>1473</v>
+        <v>1584</v>
       </c>
       <c r="F7" s="3">
-        <v>15481</v>
+        <v>13564</v>
       </c>
       <c r="G7" s="3">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="H7" s="3">
-        <v>402</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3531,16 +7212,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
-        <v>1470</v>
+        <v>1630</v>
       </c>
       <c r="F8" s="3">
-        <v>16226</v>
+        <v>13536</v>
       </c>
       <c r="G8" s="3">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="H8" s="3">
-        <v>397</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3551,16 +7232,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
-        <v>1465</v>
+        <v>1592</v>
       </c>
       <c r="F9" s="3">
-        <v>15535</v>
+        <v>13625</v>
       </c>
       <c r="G9" s="3">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="H9" s="3">
-        <v>395</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3571,16 +7252,16 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
-        <v>1476</v>
+        <v>1576</v>
       </c>
       <c r="F10" s="3">
-        <v>15299</v>
+        <v>13746</v>
       </c>
       <c r="G10" s="3">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="H10" s="3">
-        <v>404</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3591,34 +7272,34 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
-        <v>1481</v>
+        <v>1587</v>
       </c>
       <c r="F11" s="3">
-        <v>15556</v>
+        <v>13598</v>
       </c>
       <c r="G11" s="3">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="H11" s="3">
-        <v>411</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>1468</v>
+        <v>1583</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>15553</v>
+        <v>13606</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +7364,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C2" s="5">
         <v>1084</v>
@@ -3692,16 +7373,16 @@
         <v>3106</v>
       </c>
       <c r="E2" s="3">
-        <v>1382</v>
+        <v>1466</v>
       </c>
       <c r="F2" s="3">
-        <v>18040</v>
+        <v>15550</v>
       </c>
       <c r="G2" s="3">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3">
-        <v>317</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3712,16 +7393,16 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="3">
-        <v>1375</v>
+        <v>1483</v>
       </c>
       <c r="F3" s="3">
-        <v>18292</v>
+        <v>15561</v>
       </c>
       <c r="G3" s="3">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3">
-        <v>318</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -3732,16 +7413,16 @@
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="3">
-        <v>1372</v>
+        <v>1454</v>
       </c>
       <c r="F4" s="3">
-        <v>18317</v>
+        <v>15449</v>
       </c>
       <c r="G4" s="3">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H4" s="3">
-        <v>306</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -3752,16 +7433,16 @@
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3">
-        <v>1369</v>
+        <v>1460</v>
       </c>
       <c r="F5" s="3">
-        <v>18473</v>
+        <v>15607</v>
       </c>
       <c r="G5" s="3">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="H5" s="3">
-        <v>308</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -3772,16 +7453,16 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3">
-        <v>1338</v>
+        <v>1465</v>
       </c>
       <c r="F6" s="3">
-        <v>18670</v>
+        <v>15604</v>
       </c>
       <c r="G6" s="3">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="H6" s="3">
-        <v>281</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -3792,16 +7473,16 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="3">
-        <v>1377</v>
+        <v>1473</v>
       </c>
       <c r="F7" s="3">
-        <v>18284</v>
+        <v>15481</v>
       </c>
       <c r="G7" s="3">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="H7" s="3">
-        <v>317</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -3812,16 +7493,16 @@
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="3">
-        <v>1370</v>
+        <v>1470</v>
       </c>
       <c r="F8" s="3">
-        <v>18259</v>
+        <v>16226</v>
       </c>
       <c r="G8" s="3">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="H8" s="3">
-        <v>310</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -3832,16 +7513,16 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
-        <v>1352</v>
+        <v>1465</v>
       </c>
       <c r="F9" s="3">
-        <v>19153</v>
+        <v>15535</v>
       </c>
       <c r="G9" s="3">
-        <v>138</v>
+        <v>95</v>
       </c>
       <c r="H9" s="3">
-        <v>296</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -3852,16 +7533,16 @@
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="3">
-        <v>1370</v>
+        <v>1476</v>
       </c>
       <c r="F10" s="3">
-        <v>18592</v>
+        <v>15299</v>
       </c>
       <c r="G10" s="3">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="H10" s="3">
-        <v>307</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -3872,34 +7553,34 @@
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="3">
-        <v>1350</v>
+        <v>1481</v>
       </c>
       <c r="F11" s="3">
-        <v>18564</v>
+        <v>15556</v>
       </c>
       <c r="G11" s="3">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="H11" s="3">
-        <v>285</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="E12" s="2">
         <f>_xlfn.FLOOR.MATH(MEDIAN(E2:E11))</f>
-        <v>1370</v>
+        <v>1468</v>
       </c>
       <c r="F12" s="2">
         <f t="shared" ref="F12:H12" si="0">_xlfn.FLOOR.MATH(MEDIAN(F2:F11))</f>
-        <v>18395</v>
+        <v>15553</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>307</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
